--- a/public/sample.xlsx
+++ b/public/sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cielo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4032E43D-2FC2-41BE-BBDF-40BCCF20057B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="20740" windowHeight="11165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,45 +20,40 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>CREDIT</t>
-  </si>
-  <si>
-    <t>DEBIT</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>CRDB Bank - USD - 3300 - Current</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>NMB Bank - 30706600306</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>NMB</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Transport</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="&quot;&quot;0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;&quot;0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -104,7 +100,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -423,56 +419,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="5"/>
-    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" style="5"/>
+    <col min="4" max="4" width="13.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="D2" s="1">
-        <v>44724</v>
+        <v>44927</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="D3" s="1">
-        <v>44920</v>
+        <v>44928</v>
       </c>
     </row>
   </sheetData>
